--- a/01 CSISA_IN_finalODKForms/02 IASRI_Server/04 Crop Yield and Production Practices Survey/fileDesignLog.xlsx
+++ b/01 CSISA_IN_finalODKForms/02 IASRI_Server/04 Crop Yield and Production Practices Survey/fileDesignLog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asoc/Desktop/CSISA_2019/CSISA_handOver/02 CSISA_IN_finalODKForms/02 IASRI_Server/04 Crop Yield and Production Practices Survey/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044D5AC4-FAEF-0A47-AC8F-BCFF8AD9763D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D49910FA-781E-8D46-AE1A-F8018EFF1902}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="4680" windowWidth="25040" windowHeight="14060" xr2:uid="{9A7E18F5-AB61-D246-8F77-70967B06B16B}"/>
+    <workbookView xWindow="560" yWindow="960" windowWidth="25040" windowHeight="14060" xr2:uid="{9A7E18F5-AB61-D246-8F77-70967B06B16B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>04 Crop Yield and Production Practices Survey</t>
+  </si>
+  <si>
+    <t>Removed constraints for yield and edited version number to 30022019</t>
+  </si>
+  <si>
+    <t>Kathmandu, Nepal</t>
   </si>
 </sst>
 </file>
@@ -467,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8255B11-D6CD-7B44-ABFE-544DF8850D48}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -732,7 +738,7 @@
     </row>
     <row r="13" spans="1:7" ht="17">
       <c r="A13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>43659</v>
@@ -748,6 +754,26 @@
       </c>
       <c r="F13" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>43664</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
